--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value584.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value584.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.038622335847352</v>
+        <v>1.102735638618469</v>
       </c>
       <c r="B1">
-        <v>1.700824290160907</v>
+        <v>1.945701360702515</v>
       </c>
       <c r="C1">
-        <v>1.901668688716112</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.124756789753426</v>
+        <v>2.008204460144043</v>
       </c>
       <c r="E1">
-        <v>2.198311673842037</v>
+        <v>1.120494723320007</v>
       </c>
     </row>
   </sheetData>
